--- a/assets/upload/Upload_Mutasi_Perusahaan.xlsx
+++ b/assets/upload/Upload_Mutasi_Perusahaan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murry Febriansyah P\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\master_ho\assets\upload\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>NO</t>
   </si>
@@ -50,10 +50,7 @@
     <t>MURRY</t>
   </si>
   <si>
-    <t>ko gamasuk?</t>
-  </si>
-  <si>
-    <t>tapi ini bisa</t>
+    <t>masuk</t>
   </si>
 </sst>
 </file>
@@ -522,7 +519,7 @@
         <v>220220</v>
       </c>
       <c r="C2" s="4">
-        <v>220927</v>
+        <v>220220</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
@@ -554,7 +551,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="5">
         <v>44298</v>
